--- a/3_data_analysis/8_correlation_network/module_info_manual.xlsx
+++ b/3_data_analysis/8_correlation_network/module_info_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotaoshen/project/1_collaborative_projects/chuanhui_project/3_data_analysis/8_correlation_network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A73531E-3D3A-D344-83AC-452183013C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB90A22-0315-0848-9FFF-DDC8E109CC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="121">
   <si>
     <t>variable_id</t>
   </si>
@@ -106,46 +106,46 @@
     <t>HDL-3-Apo A1</t>
   </si>
   <si>
-    <t>Ca-EDTA</t>
-  </si>
-  <si>
-    <t>mmol/L</t>
+    <t>V1FC</t>
+  </si>
+  <si>
+    <t>module_2</t>
+  </si>
+  <si>
+    <t>VLDL-1-Free Cholesterol</t>
+  </si>
+  <si>
+    <t>V1PL</t>
+  </si>
+  <si>
+    <t>VLDL-1-Phospholipids</t>
+  </si>
+  <si>
+    <t>V1TG</t>
+  </si>
+  <si>
+    <t>VLDL-1-Triglyceride</t>
+  </si>
+  <si>
+    <t>V1CH</t>
+  </si>
+  <si>
+    <t>VLDL-1-Cholesterol</t>
+  </si>
+  <si>
+    <t>V4FC</t>
+  </si>
+  <si>
+    <t>VLDL-4-Free Cholesterol</t>
+  </si>
+  <si>
+    <t>alpha-glucose</t>
   </si>
   <si>
     <t>metabolite</t>
   </si>
   <si>
-    <t>V1FC</t>
-  </si>
-  <si>
-    <t>module_2</t>
-  </si>
-  <si>
-    <t>VLDL-1-Free Cholesterol</t>
-  </si>
-  <si>
-    <t>V1PL</t>
-  </si>
-  <si>
-    <t>VLDL-1-Phospholipids</t>
-  </si>
-  <si>
-    <t>V1TG</t>
-  </si>
-  <si>
-    <t>VLDL-1-Triglyceride</t>
-  </si>
-  <si>
-    <t>V1CH</t>
-  </si>
-  <si>
-    <t>VLDL-1-Cholesterol</t>
-  </si>
-  <si>
-    <t>V4FC</t>
-  </si>
-  <si>
-    <t>VLDL-4-Free Cholesterol</t>
+    <t>isoleucine</t>
   </si>
   <si>
     <t>H4TG</t>
@@ -175,15 +175,150 @@
     <t>IDL- Apo B100</t>
   </si>
   <si>
+    <t>beta-glucose</t>
+  </si>
+  <si>
+    <t>valine</t>
+  </si>
+  <si>
     <t>H3TG</t>
   </si>
   <si>
     <t>HDL-3-Triglyceride</t>
   </si>
   <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>glutamate</t>
+  </si>
+  <si>
+    <t>3-hydroxyisobutyrate</t>
+  </si>
+  <si>
+    <t>2-ketoisovalerate</t>
+  </si>
+  <si>
+    <t>asparagine</t>
+  </si>
+  <si>
+    <t>LDFC</t>
+  </si>
+  <si>
+    <t>module_3</t>
+  </si>
+  <si>
+    <t>LDL-Free Cholesterol</t>
+  </si>
+  <si>
+    <t>L3TG</t>
+  </si>
+  <si>
+    <t>LDL-3-Triglyceride</t>
+  </si>
+  <si>
+    <t>L1PL</t>
+  </si>
+  <si>
+    <t>LDL-1-Phospholipids</t>
+  </si>
+  <si>
+    <t>L1PN</t>
+  </si>
+  <si>
+    <t>LDL-1 Particle Number</t>
+  </si>
+  <si>
+    <t>L1AB</t>
+  </si>
+  <si>
+    <t>LDL-1-Apo B100</t>
+  </si>
+  <si>
+    <t>L1FC</t>
+  </si>
+  <si>
+    <t>LDL-1-Free Cholesterol</t>
+  </si>
+  <si>
+    <t>L2TG</t>
+  </si>
+  <si>
+    <t>LDL-2-Triglyceride</t>
+  </si>
+  <si>
+    <t>L1CH</t>
+  </si>
+  <si>
+    <t>LDL-1-Cholesterol</t>
+  </si>
+  <si>
+    <t>L3PL</t>
+  </si>
+  <si>
+    <t>LDL-3-Phospholipids</t>
+  </si>
+  <si>
+    <t>L3AB</t>
+  </si>
+  <si>
+    <t>LDL-3-Apo B100</t>
+  </si>
+  <si>
+    <t>L3PN</t>
+  </si>
+  <si>
+    <t>LDL-3 Particle Number</t>
+  </si>
+  <si>
+    <t>L3FC</t>
+  </si>
+  <si>
+    <t>LDL-3-Free Cholesterol</t>
+  </si>
+  <si>
+    <t>L3CH</t>
+  </si>
+  <si>
+    <t>LDL-3-Cholesterol</t>
+  </si>
+  <si>
+    <t>L2FC</t>
+  </si>
+  <si>
+    <t>LDL-2-Free Cholesterol</t>
+  </si>
+  <si>
+    <t>L2PN</t>
+  </si>
+  <si>
+    <t>LDL-2 Particle Number</t>
+  </si>
+  <si>
+    <t>L2AB</t>
+  </si>
+  <si>
+    <t>LDL-2-Apo B100</t>
+  </si>
+  <si>
+    <t>L2PL</t>
+  </si>
+  <si>
+    <t>LDL-2-Phospholipids</t>
+  </si>
+  <si>
+    <t>L2CH</t>
+  </si>
+  <si>
+    <t>LDL-2-Cholesterol</t>
+  </si>
+  <si>
     <t>L5CH</t>
   </si>
   <si>
+    <t>module_4</t>
+  </si>
+  <si>
     <t>LDL-5-Cholesterol</t>
   </si>
   <si>
@@ -205,6 +340,9 @@
     <t>LDL-5-Phospholipids</t>
   </si>
   <si>
+    <t>Mg-EDTA2-</t>
+  </si>
+  <si>
     <t>HDFC</t>
   </si>
   <si>
@@ -241,152 +379,20 @@
     <t>HDL-1-Cholesterol</t>
   </si>
   <si>
-    <t>LDFC</t>
-  </si>
-  <si>
-    <t>module_3</t>
-  </si>
-  <si>
-    <t>LDL-Free Cholesterol</t>
-  </si>
-  <si>
-    <t>L3TG</t>
-  </si>
-  <si>
-    <t>LDL-3-Triglyceride</t>
-  </si>
-  <si>
-    <t>L1PL</t>
-  </si>
-  <si>
-    <t>LDL-1-Phospholipids</t>
-  </si>
-  <si>
-    <t>L1PN</t>
-  </si>
-  <si>
-    <t>LDL-1 Particle Number</t>
-  </si>
-  <si>
-    <t>L1AB</t>
-  </si>
-  <si>
-    <t>LDL-1-Apo B100</t>
-  </si>
-  <si>
-    <t>L1FC</t>
-  </si>
-  <si>
-    <t>LDL-1-Free Cholesterol</t>
-  </si>
-  <si>
-    <t>L2TG</t>
-  </si>
-  <si>
-    <t>LDL-2-Triglyceride</t>
-  </si>
-  <si>
-    <t>L1CH</t>
-  </si>
-  <si>
-    <t>LDL-1-Cholesterol</t>
-  </si>
-  <si>
-    <t>L3PL</t>
-  </si>
-  <si>
-    <t>LDL-3-Phospholipids</t>
-  </si>
-  <si>
-    <t>L3AB</t>
-  </si>
-  <si>
-    <t>LDL-3-Apo B100</t>
-  </si>
-  <si>
-    <t>L3PN</t>
-  </si>
-  <si>
-    <t>LDL-3 Particle Number</t>
-  </si>
-  <si>
-    <t>L3FC</t>
-  </si>
-  <si>
-    <t>LDL-3-Free Cholesterol</t>
-  </si>
-  <si>
-    <t>L3CH</t>
-  </si>
-  <si>
-    <t>LDL-3-Cholesterol</t>
-  </si>
-  <si>
-    <t>L2FC</t>
-  </si>
-  <si>
-    <t>LDL-2-Free Cholesterol</t>
-  </si>
-  <si>
-    <t>L2PN</t>
-  </si>
-  <si>
-    <t>LDL-2 Particle Number</t>
-  </si>
-  <si>
-    <t>L2AB</t>
-  </si>
-  <si>
-    <t>LDL-2-Apo B100</t>
-  </si>
-  <si>
-    <t>L2PL</t>
-  </si>
-  <si>
-    <t>LDL-2-Phospholipids</t>
-  </si>
-  <si>
-    <t>L2CH</t>
-  </si>
-  <si>
-    <t>LDL-2-Cholesterol</t>
-  </si>
-  <si>
-    <t>Isoleucine</t>
-  </si>
-  <si>
-    <t>module_4</t>
-  </si>
-  <si>
-    <t>Leucine</t>
-  </si>
-  <si>
-    <t>Glucose</t>
-  </si>
-  <si>
-    <t>Valine</t>
-  </si>
-  <si>
-    <t>Lactic acid</t>
-  </si>
-  <si>
-    <t>module_2_2</t>
+    <t>acetoacetate</t>
+  </si>
+  <si>
+    <t>module_4_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -717,13 +723,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -962,30 +974,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.95223592333977103</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5.7642577120778902E-4</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3.6506965509826598E-3</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
+      </c>
+      <c r="F10">
+        <v>0.508421052631579</v>
+      </c>
+      <c r="G10">
+        <v>1.14733932661398E-2</v>
+      </c>
+      <c r="H10">
+        <v>4.1452259542182603E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -993,22 +1005,22 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
       <c r="F11">
-        <v>0.508421052631579</v>
+        <v>0.58927457908958603</v>
       </c>
       <c r="G11">
-        <v>1.14733932661398E-2</v>
+        <v>1.9258250877767901E-2</v>
       </c>
       <c r="H11">
-        <v>4.1452259542182603E-2</v>
+        <v>5.9914558286389002E-2</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -1016,25 +1028,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
       <c r="F12">
-        <v>0.58927457908958603</v>
+        <v>0.61149536660035197</v>
       </c>
       <c r="G12">
-        <v>1.9258250877767901E-2</v>
+        <v>1.59318204513339E-2</v>
       </c>
       <c r="H12">
-        <v>5.9914558286389002E-2</v>
+        <v>5.0981825444268498E-2</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -1042,25 +1054,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
       <c r="F13">
-        <v>0.61149536660035197</v>
+        <v>0.64242558616484702</v>
       </c>
       <c r="G13">
-        <v>1.59318204513339E-2</v>
+        <v>2.1284502770466E-2</v>
       </c>
       <c r="H13">
-        <v>5.0981825444268498E-2</v>
+        <v>6.3606186772640905E-2</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1068,25 +1080,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
       <c r="F14">
-        <v>0.64242558616484702</v>
+        <v>0.70838359469239998</v>
       </c>
       <c r="G14">
-        <v>2.1284502770466E-2</v>
+        <v>1.38131406806433E-2</v>
       </c>
       <c r="H14">
-        <v>6.3606186772640905E-2</v>
+        <v>4.6863271894893199E-2</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1094,77 +1106,71 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>0.73836071400186298</v>
+      </c>
+      <c r="G15">
+        <v>5.1644398076431099E-6</v>
+      </c>
+      <c r="H15">
+        <v>1.7642812041278198E-5</v>
+      </c>
+      <c r="I15" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15">
-        <v>0.70838359469239998</v>
-      </c>
-      <c r="G15">
-        <v>1.38131406806433E-2</v>
-      </c>
-      <c r="H15">
-        <v>4.6863271894893199E-2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>0.753902841074372</v>
+        <v>0.74212145904030202</v>
       </c>
       <c r="G16">
-        <v>1.32698608505704E-3</v>
+        <v>1.9493052320993699E-7</v>
       </c>
       <c r="H16">
-        <v>1.20110746972029E-2</v>
+        <v>1.65690944728446E-6</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>0.756107790709867</v>
+        <v>0.753902841074372</v>
       </c>
       <c r="G17">
-        <v>4.9896679892003797E-2</v>
+        <v>1.32698608505704E-3</v>
       </c>
       <c r="H17">
-        <v>0.12141864441033599</v>
+        <v>1.20110746972029E-2</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1172,25 +1178,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18">
-        <v>0.763125739292699</v>
+        <v>0.756107790709867</v>
       </c>
       <c r="G18">
-        <v>2.35527684309857E-2</v>
+        <v>4.9896679892003797E-2</v>
       </c>
       <c r="H18">
-        <v>6.6153073780652702E-2</v>
+        <v>0.12141864441033599</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
@@ -1198,22 +1204,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19">
-        <v>0.76318591609285102</v>
+        <v>0.763125739292699</v>
       </c>
       <c r="G19">
-        <v>2.3626097778804499E-2</v>
+        <v>2.35527684309857E-2</v>
       </c>
       <c r="H19">
         <v>6.6153073780652702E-2</v>
@@ -1224,25 +1230,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>0.79499866274404896</v>
+        <v>0.76318591609285102</v>
       </c>
       <c r="G20">
-        <v>8.6367372861126494E-3</v>
+        <v>2.3626097778804499E-2</v>
       </c>
       <c r="H20">
-        <v>3.7204406770946802E-2</v>
+        <v>6.6153073780652702E-2</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -1250,77 +1256,71 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F21">
-        <v>0.821538906252823</v>
+        <v>0.77575004825621996</v>
       </c>
       <c r="G21">
-        <v>3.2838829334051203E-2</v>
+        <v>1.8819317210149201E-5</v>
       </c>
       <c r="H21">
-        <v>8.7570211557469801E-2</v>
+        <v>5.3321398762089497E-5</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F22">
-        <v>0.83237091439143396</v>
+        <v>0.780501386444024</v>
       </c>
       <c r="G22">
-        <v>4.5808358598613E-2</v>
+        <v>2.0389171559945799E-6</v>
       </c>
       <c r="H22">
-        <v>0.114222424552266</v>
+        <v>1.15538638839693E-5</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F23">
-        <v>0.83242720476762999</v>
+        <v>0.79499866274404896</v>
       </c>
       <c r="G23">
-        <v>4.5892938436178199E-2</v>
+        <v>8.6367372861126494E-3</v>
       </c>
       <c r="H23">
-        <v>0.114222424552266</v>
+        <v>3.7204406770946802E-2</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1328,207 +1328,192 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24">
+        <v>0.79627431045098296</v>
+      </c>
+      <c r="G24">
+        <v>1.41536439391122E-7</v>
+      </c>
+      <c r="H24">
+        <v>1.65690944728446E-6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25">
+        <v>0.82184009714856698</v>
+      </c>
+      <c r="G25">
+        <v>1.01251078570061E-4</v>
+      </c>
+      <c r="H25">
+        <v>1.9125203729900399E-4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26">
+        <v>0.84961180007010195</v>
+      </c>
+      <c r="G26">
+        <v>5.1890623650818096E-6</v>
+      </c>
+      <c r="H26">
+        <v>1.7642812041278198E-5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27">
+        <v>0.90773178683318201</v>
+      </c>
+      <c r="G27">
+        <v>4.5301475285217802E-3</v>
+      </c>
+      <c r="H27">
+        <v>5.9240390757592503E-3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>0.93636093117034003</v>
+      </c>
+      <c r="G28">
+        <v>4.3490524633506304E-3</v>
+      </c>
+      <c r="H28">
+        <v>5.9240390757592503E-3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="F24">
-        <v>0.83545517674680103</v>
-      </c>
-      <c r="G24">
-        <v>3.0577752806317901E-2</v>
-      </c>
-      <c r="H24">
-        <v>8.3529471080673295E-2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="1">
-        <v>1.1663049953195499</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1.4226350396664001E-2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>4.6863271894893199E-2</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="F29">
+        <v>1.1521511834846101</v>
+      </c>
+      <c r="G29">
+        <v>2.1580670512145999E-2</v>
+      </c>
+      <c r="H29">
+        <v>6.3606186772640905E-2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="1">
-        <v>1.38974559177565</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1.3042798096669201E-3</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1.20110746972029E-2</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1.4001694094869299</v>
-      </c>
-      <c r="G27" s="1">
-        <v>6.9804023091087804E-3</v>
-      </c>
-      <c r="H27" s="1">
-        <v>3.4958411640696303E-2</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.44224223553963</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1.9953522423888002E-3</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1.31458500675027E-2</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.4470398833571301</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1.0489630847369401E-3</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1.20110746972029E-2</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1.52117816989382</v>
-      </c>
-      <c r="G30" s="1">
-        <v>3.02352013641662E-4</v>
-      </c>
-      <c r="H30" s="1">
-        <v>8.4658563819665408E-3</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="F30">
+        <v>1.1667186525265101</v>
+      </c>
+      <c r="G30">
+        <v>1.10994697244488E-2</v>
+      </c>
+      <c r="H30">
+        <v>4.14380203046089E-2</v>
+      </c>
+      <c r="I30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F31">
-        <v>1.1521511834846101</v>
+        <v>1.2143651400375299</v>
       </c>
       <c r="G31">
-        <v>2.1580670512145999E-2</v>
+        <v>1.3951872125610099E-2</v>
       </c>
       <c r="H31">
-        <v>6.3606186772640905E-2</v>
+        <v>4.6863271894893199E-2</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -1536,25 +1521,25 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F32">
-        <v>1.1667186525265101</v>
+        <v>1.23836075339895</v>
       </c>
       <c r="G32">
-        <v>1.10994697244488E-2</v>
+        <v>9.6582412138073205E-3</v>
       </c>
       <c r="H32">
-        <v>4.14380203046089E-2</v>
+        <v>3.8632964855229303E-2</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -1562,25 +1547,25 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F33">
-        <v>1.2143651400375299</v>
+        <v>1.23837964165152</v>
       </c>
       <c r="G33">
-        <v>1.3951872125610099E-2</v>
+        <v>9.6534708782299392E-3</v>
       </c>
       <c r="H33">
-        <v>4.6863271894893199E-2</v>
+        <v>3.8632964855229303E-2</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
@@ -1588,25 +1573,25 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F34">
-        <v>1.23836075339895</v>
+        <v>1.2497145756691601</v>
       </c>
       <c r="G34">
-        <v>9.6582412138073205E-3</v>
+        <v>8.3432137265468005E-3</v>
       </c>
       <c r="H34">
-        <v>3.8632964855229303E-2</v>
+        <v>3.7204406770946802E-2</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -1614,25 +1599,25 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
         <v>74</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
-      </c>
       <c r="F35">
-        <v>1.23837964165152</v>
+        <v>1.2701149425287399</v>
       </c>
       <c r="G35">
-        <v>9.6534708782299392E-3</v>
+        <v>1.5410780581410399E-3</v>
       </c>
       <c r="H35">
-        <v>3.8632964855229303E-2</v>
+        <v>1.20110746972029E-2</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -1640,25 +1625,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F36">
-        <v>1.2497145756691601</v>
+        <v>1.2824213054292799</v>
       </c>
       <c r="G36">
-        <v>8.3432137265468005E-3</v>
+        <v>1.08335983797613E-2</v>
       </c>
       <c r="H36">
-        <v>3.7204406770946802E-2</v>
+        <v>4.14380203046089E-2</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -1666,25 +1651,25 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F37">
-        <v>1.2701149425287399</v>
+        <v>1.29571026722925</v>
       </c>
       <c r="G37">
-        <v>1.5410780581410399E-3</v>
+        <v>7.5304146228378204E-3</v>
       </c>
       <c r="H37">
-        <v>1.20110746972029E-2</v>
+        <v>3.5141934906576501E-2</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -1692,25 +1677,25 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F38">
-        <v>1.2824213054292799</v>
+        <v>1.2992294161990099</v>
       </c>
       <c r="G38">
-        <v>1.08335983797613E-2</v>
+        <v>6.93752356490142E-3</v>
       </c>
       <c r="H38">
-        <v>4.14380203046089E-2</v>
+        <v>3.4958411640696303E-2</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -1718,25 +1703,25 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F39">
-        <v>1.29571026722925</v>
+        <v>1.29925719484528</v>
       </c>
       <c r="G39">
-        <v>7.5304146228378204E-3</v>
+        <v>6.9342917047880001E-3</v>
       </c>
       <c r="H39">
-        <v>3.5141934906576501E-2</v>
+        <v>3.4958411640696303E-2</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -1744,25 +1729,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F40">
-        <v>1.2992294161990099</v>
+        <v>1.3101632789070301</v>
       </c>
       <c r="G40">
-        <v>6.93752356490142E-3</v>
+        <v>1.60862607551825E-3</v>
       </c>
       <c r="H40">
-        <v>3.4958411640696303E-2</v>
+        <v>1.20110746972029E-2</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -1770,22 +1755,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F41">
-        <v>1.29925719484528</v>
+        <v>1.3607826832627401</v>
       </c>
       <c r="G41">
-        <v>6.9342917047880001E-3</v>
+        <v>7.1789595333572702E-3</v>
       </c>
       <c r="H41">
         <v>3.4958411640696303E-2</v>
@@ -1796,22 +1781,22 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F42">
-        <v>1.3101632789070301</v>
+        <v>1.43812082722684</v>
       </c>
       <c r="G42">
-        <v>1.60862607551825E-3</v>
+        <v>1.4223250027088599E-3</v>
       </c>
       <c r="H42">
         <v>1.20110746972029E-2</v>
@@ -1822,25 +1807,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F43">
-        <v>1.3607826832627401</v>
+        <v>1.52293464285161</v>
       </c>
       <c r="G43">
-        <v>7.1789595333572702E-3</v>
+        <v>1.0840062002812701E-3</v>
       </c>
       <c r="H43">
-        <v>3.4958411640696303E-2</v>
+        <v>1.20110746972029E-2</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -1848,22 +1833,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F44">
-        <v>1.43812082722684</v>
+        <v>1.5230153811482301</v>
       </c>
       <c r="G44">
-        <v>1.4223250027088599E-3</v>
+        <v>1.0832980747218399E-3</v>
       </c>
       <c r="H44">
         <v>1.20110746972029E-2</v>
@@ -1874,22 +1859,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F45">
-        <v>1.52293464285161</v>
+        <v>1.56709247117341</v>
       </c>
       <c r="G45">
-        <v>1.0840062002812701E-3</v>
+        <v>5.4543749118429903E-4</v>
       </c>
       <c r="H45">
         <v>1.20110746972029E-2</v>
@@ -1900,22 +1885,22 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F46">
-        <v>1.5230153811482301</v>
+        <v>1.68557968755412</v>
       </c>
       <c r="G46">
-        <v>1.0832980747218399E-3</v>
+        <v>7.7786096723879005E-4</v>
       </c>
       <c r="H46">
         <v>1.20110746972029E-2</v>
@@ -1926,25 +1911,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F47">
-        <v>1.56709247117341</v>
+        <v>0.821538906252823</v>
       </c>
       <c r="G47">
-        <v>5.4543749118429903E-4</v>
+        <v>3.2838829334051203E-2</v>
       </c>
       <c r="H47">
-        <v>1.20110746972029E-2</v>
+        <v>8.7570211557469801E-2</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
@@ -1952,162 +1937,285 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48">
+        <v>0.83237091439143396</v>
+      </c>
+      <c r="G48">
+        <v>4.5808358598613E-2</v>
+      </c>
+      <c r="H48">
+        <v>0.114222424552266</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49">
+        <v>0.83242720476762999</v>
+      </c>
+      <c r="G49">
+        <v>4.5892938436178199E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.114222424552266</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50">
+        <v>0.83545517674680103</v>
+      </c>
+      <c r="G50">
+        <v>3.0577752806317901E-2</v>
+      </c>
+      <c r="H50">
+        <v>8.3529471080673295E-2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51">
+        <v>1.1041573732008201</v>
+      </c>
+      <c r="G51">
+        <v>6.4904017058187207E-5</v>
+      </c>
+      <c r="H51">
+        <v>1.3792103624864799E-4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
         <v>108</v>
       </c>
-      <c r="B48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="F52">
+        <v>1.1663049953195499</v>
+      </c>
+      <c r="G52">
+        <v>1.4226350396664001E-2</v>
+      </c>
+      <c r="H52">
+        <v>4.6863271894893199E-2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>109</v>
       </c>
-      <c r="F48">
-        <v>1.68557968755412</v>
-      </c>
-      <c r="G48">
-        <v>7.7786096723879005E-4</v>
-      </c>
-      <c r="H48">
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53">
+        <v>1.38974559177565</v>
+      </c>
+      <c r="G53">
+        <v>1.3042798096669201E-3</v>
+      </c>
+      <c r="H53">
         <v>1.20110746972029E-2</v>
       </c>
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0.54551539491298495</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1.72904968466272E-5</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1.5586485952795399E-4</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0.61932337701920104</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1.8295819885977801E-7</v>
-      </c>
-      <c r="H50" s="1">
-        <v>6.9524115566715503E-6</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="F54">
+        <v>1.4001694094869299</v>
+      </c>
+      <c r="G54">
+        <v>6.9804023091087804E-3</v>
+      </c>
+      <c r="H54">
+        <v>3.4958411640696303E-2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0.65148609139495495</v>
-      </c>
-      <c r="G51" s="1">
-        <v>2.5640852156857498E-6</v>
-      </c>
-      <c r="H51" s="1">
-        <v>4.3413609281904401E-5</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0.73150851581508503</v>
-      </c>
-      <c r="G52" s="1">
-        <v>2.0508534148415E-5</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1.5586485952795399E-4</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="F55">
+        <v>1.44224223553963</v>
+      </c>
+      <c r="G55">
+        <v>1.9953522423888002E-3</v>
+      </c>
+      <c r="H55">
+        <v>1.31458500675027E-2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0.80295354550375397</v>
-      </c>
-      <c r="G53" s="1">
-        <v>2.3811964952204201E-3</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1.1310683352297001E-2</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>30</v>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56">
+        <v>1.4470398833571301</v>
+      </c>
+      <c r="G56">
+        <v>1.0489630847369401E-3</v>
+      </c>
+      <c r="H56">
+        <v>1.20110746972029E-2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57">
+        <v>1.52117816989382</v>
+      </c>
+      <c r="G57">
+        <v>3.02352013641662E-4</v>
+      </c>
+      <c r="H57">
+        <v>8.4658563819665408E-3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58">
+        <v>0.79281936303711797</v>
+      </c>
+      <c r="G58">
+        <v>3.0150167940987099E-2</v>
+      </c>
+      <c r="H58">
+        <v>3.4170190333118702E-2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
